--- a/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/Sample_Wash_Cycle.xlsx
+++ b/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/Sample_Wash_Cycle.xlsx
@@ -8,25 +8,325 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A28E5224-0B01-4AE0-A06C-9DBFB926E558}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE7001D-6BB6-4118-B349-F62274460619}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample Wash Cycle" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC_WASH" sheetId="6" r:id="rId1"/>
+    <sheet name="WASH_WITH_DETERGENT" sheetId="5" r:id="rId2"/>
+    <sheet name="SAFE_STATE" sheetId="3" r:id="rId3"/>
+    <sheet name="INITIALIZATION" sheetId="1" r:id="rId4"/>
+    <sheet name="COMMON_STOPS" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="TIMEOUT">COMMON_STOPS!$D$3</definedName>
+    <definedName name="TIMOUT">COMMON_STOPS!$D$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
+  <si>
+    <t>WSN</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>VA_WWI</t>
+  </si>
+  <si>
+    <t>VA_WWO</t>
+  </si>
+  <si>
+    <t>VA_XO</t>
+  </si>
+  <si>
+    <t>VA_A</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>DM_Wash</t>
+  </si>
+  <si>
+    <t>DM_Res</t>
+  </si>
+  <si>
+    <t>P_DD</t>
+  </si>
+  <si>
+    <t>S3T</t>
+  </si>
+  <si>
+    <t>HYDRATION_PHASE</t>
+  </si>
+  <si>
+    <t>INITIALIZATION</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>21,1,500</t>
+  </si>
+  <si>
+    <t>21,1,6000</t>
+  </si>
+  <si>
+    <t>CONFIGURE_VALVES</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>LMT_SW_</t>
+  </si>
+  <si>
+    <t>LMT_SW_WASH_EXT</t>
+  </si>
+  <si>
+    <t>LMT_SW_RES_RET</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>8,1,600</t>
+  </si>
+  <si>
+    <t>9,1,600</t>
+  </si>
+  <si>
+    <t>10,1,50</t>
+  </si>
+  <si>
+    <t>11,1,50</t>
+  </si>
+  <si>
+    <t>WASH_NET_FORCE_CEILING</t>
+  </si>
+  <si>
+    <t>RES_NET_FORCE_CEILING</t>
+  </si>
+  <si>
+    <t>WASH_DELTA_FORCE_CEILING</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>E-STOP CONDITIONS</t>
+  </si>
+  <si>
+    <t>8,1,800</t>
+  </si>
+  <si>
+    <t>9,1,800</t>
+  </si>
+  <si>
+    <t>POWER_DRAW_CEILING</t>
+  </si>
+  <si>
+    <t>13,1,TBD</t>
+  </si>
+  <si>
+    <t>RES_NET_FORCE_STOP</t>
+  </si>
+  <si>
+    <t>WASH_NET_FORCE_STOP</t>
+  </si>
+  <si>
+    <t>NST1</t>
+  </si>
+  <si>
+    <t>NST2</t>
+  </si>
+  <si>
+    <t>SAFE_TRANSIENT_STATE</t>
+  </si>
+  <si>
+    <t>PURGING AIR</t>
+  </si>
+  <si>
+    <t>HYDRATION</t>
+  </si>
+  <si>
+    <t>DRAWING WATER</t>
+  </si>
+  <si>
+    <t>AGITATION</t>
+  </si>
+  <si>
+    <t>COMPRESSION 1</t>
+  </si>
+  <si>
+    <t>DECOMPRESSION 1</t>
+  </si>
+  <si>
+    <t>COMPRESSION 2</t>
+  </si>
+  <si>
+    <t>DECOMPRESSION 2</t>
+  </si>
+  <si>
+    <t>COMPRESSION 3</t>
+  </si>
+  <si>
+    <t>DECOMPRESSION 3</t>
+  </si>
+  <si>
+    <t>DRYING</t>
+  </si>
+  <si>
+    <t>PURGING WATER</t>
+  </si>
+  <si>
+    <t>DECOMPRESSING</t>
+  </si>
+  <si>
+    <t>COMPRESSION DRY</t>
+  </si>
+  <si>
+    <t>RETRACTING RESERVOIR PISTON</t>
+  </si>
+  <si>
+    <t>RETRACTING WASH PISTON</t>
+  </si>
+  <si>
+    <t>These instructions assume that the reservoir piston is desirably retracted, and wash piston is fully retracted</t>
+  </si>
+  <si>
+    <t>ACCESS_HATCH_OPEN</t>
+  </si>
+  <si>
+    <t>20,2,0</t>
+  </si>
+  <si>
+    <t>START DETERGENT DOSE</t>
+  </si>
+  <si>
+    <t>END DETERGENT DOSE</t>
+  </si>
+  <si>
+    <t>SOAPY WATER PURGE</t>
+  </si>
+  <si>
+    <t>RINSE AGITATE</t>
+  </si>
+  <si>
+    <t>PURGING SOAPY WATER</t>
+  </si>
+  <si>
+    <t>DRAWING CLEAN WATER</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DM_DIR_WASH</t>
+  </si>
+  <si>
+    <t>DM_SPD_WASH</t>
+  </si>
+  <si>
+    <t>DM_DIR_RES</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>POSTWASH</t>
+  </si>
+  <si>
+    <t>PREWASH</t>
+  </si>
+  <si>
+    <t>RESERVOIR PISTON RETRACT</t>
+  </si>
+  <si>
+    <t>WASH PISTON RETRACT</t>
+  </si>
+  <si>
+    <t>NST1_i</t>
+  </si>
+  <si>
+    <t>NST1_r</t>
+  </si>
+  <si>
+    <t>NST1_v</t>
+  </si>
+  <si>
+    <t>NST2_i</t>
+  </si>
+  <si>
+    <t>NST2_r</t>
+  </si>
+  <si>
+    <t>NST2_v</t>
+  </si>
+  <si>
+    <t>Depressed</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>DM_SPD_RES</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +334,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +373,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,15 +670,2598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A000A0A-861B-4BE4-BD10-EF9338B4D2B3}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.06640625" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.53125" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
+    <col min="12" max="12" width="5.53125" customWidth="1"/>
+    <col min="13" max="18" width="6.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>16</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>17</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE93D90-E670-4AEF-AE09-0081B412BB27}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.06640625" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.53125" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="5.53125" customWidth="1"/>
+    <col min="13" max="18" width="6.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>16</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>16</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>17</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A6CC2-B44E-428B-99D3-D2C559BEFE96}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92EB97F-B3C0-40EA-83F9-246EEF46B2A2}">
+  <dimension ref="C1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="22.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="10" max="10" width="25.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>